--- a/extra_files/He_Results.xlsx
+++ b/extra_files/He_Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sasanm\Documents\GitHub\m-TSP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sasanm\Documents\GitHub\m-TSP\extra_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD216CDF-25D7-4E97-9A3D-9B63C1B81760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2551942D-448A-4D2C-9D5A-A8504167447A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="1740" windowWidth="21585" windowHeight="11835" activeTab="1" xr2:uid="{C755CF13-FDC1-4603-85E1-D68338F2B6CC}"/>
+    <workbookView xWindow="3720" yWindow="1440" windowWidth="21585" windowHeight="11835" activeTab="1" xr2:uid="{C755CF13-FDC1-4603-85E1-D68338F2B6CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="61">
   <si>
     <t>mtsp51–3</t>
   </si>
@@ -601,7 +601,7 @@
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -645,7 +645,7 @@
       </c>
       <c r="O1" s="3"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -689,7 +689,7 @@
       </c>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -731,7 +731,7 @@
       </c>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -773,7 +773,7 @@
       </c>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -815,7 +815,7 @@
       </c>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -857,7 +857,7 @@
       </c>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -899,7 +899,7 @@
       </c>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -941,7 +941,7 @@
       </c>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -983,7 +983,7 @@
       </c>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1403,7 +1403,7 @@
       </c>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1445,7 +1445,7 @@
       </c>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1739,7 +1739,7 @@
       </c>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1781,7 +1781,7 @@
       </c>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
     </row>
@@ -2006,7 +2006,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B9" sqref="B9:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2014,272 +2014,917 @@
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>32490.247825091996</v>
+        <v>159.57150861783984</v>
       </c>
       <c r="C1">
-        <v>32492.0019139204</v>
+        <v>159.57150861783984</v>
       </c>
       <c r="D1">
-        <v>32241.427404930026</v>
+        <v>159.57150861783984</v>
       </c>
       <c r="E1">
-        <v>31861.135698367303</v>
+        <v>159.57150861783987</v>
       </c>
       <c r="F1">
-        <v>32408.91148541211</v>
+        <v>159.57150861783984</v>
       </c>
       <c r="G1">
-        <v>32128.5368202893</v>
+        <v>159.57150861783987</v>
       </c>
       <c r="H1">
-        <v>32159.040418617766</v>
+        <v>159.57150861783987</v>
       </c>
       <c r="I1">
-        <v>32301.914600496304</v>
+        <v>159.57150861783987</v>
       </c>
       <c r="J1">
-        <v>32233.489252084433</v>
+        <v>159.57150861783984</v>
       </c>
       <c r="K1">
-        <v>31904.093961514453</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>159.57150861783987</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>22553.26697816913</v>
+        <v>119.87793333307086</v>
       </c>
       <c r="C2">
-        <v>22348.100642813442</v>
+        <v>118.53661687920521</v>
       </c>
       <c r="D2">
-        <v>22258.888471749706</v>
+        <v>118.13375254600861</v>
       </c>
       <c r="E2">
-        <v>22422.46081746059</v>
+        <v>118.53661687920523</v>
       </c>
       <c r="F2">
-        <v>22924.28724718475</v>
+        <v>119.87793333307089</v>
       </c>
       <c r="G2">
-        <v>22348.923042817096</v>
+        <v>118.53661687920523</v>
       </c>
       <c r="H2">
-        <v>22438.35961482514</v>
+        <v>118.53661687920523</v>
       </c>
       <c r="I2">
-        <v>22597.823190763404</v>
+        <v>118.13375254600862</v>
       </c>
       <c r="J2">
-        <v>22463.47082258998</v>
+        <v>118.53661687920524</v>
       </c>
       <c r="K2">
-        <v>22750.10074354225</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>118.53661687920523</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>18084.20974258924</v>
+        <v>112.07140580897509</v>
       </c>
       <c r="C3">
-        <v>18042.64141857721</v>
+        <v>112.07140580897506</v>
       </c>
       <c r="D3">
-        <v>18225.503242339346</v>
+        <v>112.071405808975</v>
       </c>
       <c r="E3">
-        <v>18315.2102013747</v>
+        <v>112.07140580897513</v>
       </c>
       <c r="F3">
-        <v>18225.50324233935</v>
+        <v>112.07140580897516</v>
       </c>
       <c r="G3">
-        <v>18134.367099993862</v>
+        <v>112.07140580897506</v>
       </c>
       <c r="H3">
-        <v>18240.166098427573</v>
+        <v>112.07140580897511</v>
       </c>
       <c r="I3">
-        <v>18042.64141857721</v>
+        <v>112.07140580897511</v>
       </c>
       <c r="J3">
-        <v>18089.141243861657</v>
+        <v>112.07140580897511</v>
       </c>
       <c r="K3">
-        <v>18092.442925177682</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>112.07140580897511</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>17641.16379380906</v>
+        <v>8509.1624832976941</v>
       </c>
       <c r="C4">
-        <v>17641.163793809064</v>
+        <v>8509.1624832976941</v>
       </c>
       <c r="D4">
-        <v>17641.16379380906</v>
+        <v>8509.1624832976959</v>
       </c>
       <c r="E4">
-        <v>17641.163793809064</v>
+        <v>8509.1624832976941</v>
       </c>
       <c r="F4">
-        <v>17641.16379380906</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>8509.1624832976959</v>
+      </c>
+      <c r="G4">
+        <v>8509.1624832976941</v>
+      </c>
+      <c r="H4">
+        <v>8509.1624832976959</v>
+      </c>
+      <c r="I4">
+        <v>8509.1624832976941</v>
+      </c>
+      <c r="J4">
+        <v>8509.1624832976941</v>
+      </c>
+      <c r="K4">
+        <v>8509.1624832976941</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="B5">
+        <v>6814.8765847115974</v>
+      </c>
+      <c r="C5">
+        <v>6814.8765847115983</v>
+      </c>
+      <c r="D5">
+        <v>6814.8765847115983</v>
+      </c>
+      <c r="E5">
+        <v>6814.8765847115974</v>
+      </c>
+      <c r="F5">
+        <v>6814.8765847115974</v>
+      </c>
+      <c r="G5">
+        <v>6814.8765847115974</v>
+      </c>
+      <c r="H5">
+        <v>6814.8765847115983</v>
+      </c>
+      <c r="I5">
+        <v>6814.8765847115974</v>
+      </c>
+      <c r="J5">
+        <v>6814.8765847115983</v>
+      </c>
+      <c r="K5">
+        <v>6814.8765847115974</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="B6">
+        <v>6358.4859833139481</v>
+      </c>
+      <c r="C6">
+        <v>6358.485983313949</v>
+      </c>
+      <c r="D6">
+        <v>6358.485983313949</v>
+      </c>
+      <c r="E6">
+        <v>6358.4859833139471</v>
+      </c>
+      <c r="F6">
+        <v>6358.4859833139471</v>
+      </c>
+      <c r="G6">
+        <v>6358.4859833139471</v>
+      </c>
+      <c r="H6">
+        <v>6358.485983313949</v>
+      </c>
+      <c r="I6">
+        <v>6358.485983313949</v>
+      </c>
+      <c r="J6">
+        <v>6358.4859833139471</v>
+      </c>
+      <c r="K6">
+        <v>6358.485983313949</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="B7">
+        <v>6358.4859833139499</v>
+      </c>
+      <c r="C7">
+        <v>6358.485983313949</v>
+      </c>
+      <c r="D7">
+        <v>6358.4859833139508</v>
+      </c>
+      <c r="E7">
+        <v>6358.4859833139508</v>
+      </c>
+      <c r="F7">
+        <v>6358.4859833139499</v>
+      </c>
+      <c r="G7">
+        <v>6358.4859833139508</v>
+      </c>
+      <c r="H7">
+        <v>6358.4859833139508</v>
+      </c>
+      <c r="I7">
+        <v>6358.485983313949</v>
+      </c>
+      <c r="J7">
+        <v>6358.4859833139499</v>
+      </c>
+      <c r="K7">
+        <v>6358.485983313949</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="B8">
+        <v>13206.73743426681</v>
+      </c>
+      <c r="C8">
+        <v>13119.221287627493</v>
+      </c>
+      <c r="D8">
+        <v>13171.303848314832</v>
+      </c>
+      <c r="E8">
+        <v>13040.581731604911</v>
+      </c>
+      <c r="F8">
+        <v>13098.882984770329</v>
+      </c>
+      <c r="G8">
+        <v>13071.07189288868</v>
+      </c>
+      <c r="H8">
+        <v>13131.332184241499</v>
+      </c>
+      <c r="I8">
+        <v>13038.337024309652</v>
+      </c>
+      <c r="J8">
+        <v>13237.975854670838</v>
+      </c>
+      <c r="K8">
+        <v>13183.202487416122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="B9">
+        <v>8645.8939073455513</v>
+      </c>
+      <c r="C9">
+        <v>8533.0461736121051</v>
+      </c>
+      <c r="D9">
+        <v>8515.7132233312332</v>
+      </c>
+      <c r="E9">
+        <v>8669.9106312037129</v>
+      </c>
+      <c r="F9">
+        <v>8587.0094130686666</v>
+      </c>
+      <c r="G9">
+        <v>8536.8267721711836</v>
+      </c>
+      <c r="H9">
+        <v>8512.1454527034348</v>
+      </c>
+      <c r="I9">
+        <v>8676.3985099082693</v>
+      </c>
+      <c r="J9">
+        <v>8575.1962422534016</v>
+      </c>
+      <c r="K9">
+        <v>8498.9409745886715</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="B10">
+        <v>5590.1905219348973</v>
+      </c>
+      <c r="C10">
+        <v>5590.1905219348973</v>
+      </c>
+      <c r="D10">
+        <v>5590.1905219348992</v>
+      </c>
+      <c r="E10">
+        <v>5698.4934808489752</v>
+      </c>
+      <c r="F10">
+        <v>5639.4354211940372</v>
+      </c>
+      <c r="G10">
+        <v>5639.4354211940372</v>
+      </c>
+      <c r="H10">
+        <v>5590.1905219348964</v>
+      </c>
+      <c r="I10">
+        <v>5590.1905219348973</v>
+      </c>
+      <c r="J10">
+        <v>5590.1905219348973</v>
+      </c>
+      <c r="K10">
+        <v>5561.9731062182964</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="B11">
+        <v>5246.4940674701966</v>
+      </c>
+      <c r="C11">
+        <v>5246.4940674701966</v>
+      </c>
+      <c r="D11">
+        <v>5246.4940674701966</v>
+      </c>
+      <c r="E11">
+        <v>5246.4940674701929</v>
+      </c>
+      <c r="F11">
+        <v>5246.4940674701938</v>
+      </c>
+      <c r="G11">
+        <v>5246.4940674701966</v>
+      </c>
+      <c r="H11">
+        <v>5246.4940674701966</v>
+      </c>
+      <c r="I11">
+        <v>5246.4940674701975</v>
+      </c>
+      <c r="J11">
+        <v>5246.4940674701957</v>
+      </c>
+      <c r="K11">
+        <v>5246.4940674701966</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="B12">
+        <v>5246.4940674701957</v>
+      </c>
+      <c r="C12">
+        <v>5246.4940674701975</v>
+      </c>
+      <c r="D12">
+        <v>5246.4940674701966</v>
+      </c>
+      <c r="E12">
+        <v>5246.4940674701975</v>
+      </c>
+      <c r="F12">
+        <v>5246.4940674701966</v>
+      </c>
+      <c r="G12">
+        <v>5246.4940674701957</v>
+      </c>
+      <c r="H12">
+        <v>5246.4940674701957</v>
+      </c>
+      <c r="I12">
+        <v>5246.4940674701966</v>
+      </c>
+      <c r="J12">
+        <v>5246.4940674701966</v>
+      </c>
+      <c r="K12">
+        <v>5246.494067470192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="B13">
+        <v>2420.2475160164927</v>
+      </c>
+      <c r="C13">
+        <v>2420.2475160164922</v>
+      </c>
+      <c r="D13">
+        <v>2407.3354266968472</v>
+      </c>
+      <c r="E13">
+        <v>2407.3354266968472</v>
+      </c>
+      <c r="F13">
+        <v>2465.8739767286861</v>
+      </c>
+      <c r="G13">
+        <v>2443.4033278353763</v>
+      </c>
+      <c r="H13">
+        <v>2435.9295814836796</v>
+      </c>
+      <c r="I13">
+        <v>2439.6985827249264</v>
+      </c>
+      <c r="J13">
+        <v>2407.3354266968468</v>
+      </c>
+      <c r="K13">
+        <v>2437.8298840947518</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="B14">
+        <v>1744.2595330937449</v>
+      </c>
+      <c r="C14">
+        <v>1741.1301154995213</v>
+      </c>
+      <c r="D14">
+        <v>1744.2595330937449</v>
+      </c>
+      <c r="E14">
+        <v>1744.2595330937449</v>
+      </c>
+      <c r="F14">
+        <v>1744.2595330937449</v>
+      </c>
+      <c r="G14">
+        <v>1744.2595330937447</v>
+      </c>
+      <c r="H14">
+        <v>1744.2595330937449</v>
+      </c>
+      <c r="I14">
+        <v>1744.2595330937449</v>
+      </c>
+      <c r="J14">
+        <v>1741.6061956092196</v>
+      </c>
+      <c r="K14">
+        <v>1744.2595330937449</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="B15">
+        <v>1554.6364153558973</v>
+      </c>
+      <c r="C15">
+        <v>1554.6364153558989</v>
+      </c>
+      <c r="D15">
+        <v>1554.6364153558998</v>
+      </c>
+      <c r="E15">
+        <v>1554.6364153558993</v>
+      </c>
+      <c r="F15">
+        <v>1554.6364153558993</v>
+      </c>
+      <c r="G15">
+        <v>1554.6364153558998</v>
+      </c>
+      <c r="H15">
+        <v>1554.6364153558989</v>
+      </c>
+      <c r="I15">
+        <v>1554.6364153558995</v>
+      </c>
+      <c r="J15">
+        <v>1554.6364153558977</v>
+      </c>
+      <c r="K15">
+        <v>1554.6364153558991</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="B16">
+        <v>1554.6364153558998</v>
+      </c>
+      <c r="C16">
+        <v>1554.6364153558991</v>
+      </c>
+      <c r="D16">
+        <v>1554.6364153558998</v>
+      </c>
+      <c r="E16">
+        <v>1554.6364153558998</v>
+      </c>
+      <c r="F16">
+        <v>1554.6364153558998</v>
+      </c>
+      <c r="G16">
+        <v>1554.6364153558998</v>
+      </c>
+      <c r="H16">
+        <v>1554.6364153558995</v>
+      </c>
+      <c r="I16">
+        <v>1554.6364153558998</v>
+      </c>
+      <c r="J16">
+        <v>1554.6364153559</v>
+      </c>
+      <c r="K16">
+        <v>1554.6364153558998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="B17">
+        <v>1554.6364153558998</v>
+      </c>
+      <c r="C17">
+        <v>1554.6364153558998</v>
+      </c>
+      <c r="D17">
+        <v>1554.6364153558998</v>
+      </c>
+      <c r="E17">
+        <v>1554.6364153559</v>
+      </c>
+      <c r="F17">
+        <v>1554.6364153558998</v>
+      </c>
+      <c r="G17">
+        <v>1554.6364153558998</v>
+      </c>
+      <c r="H17">
+        <v>1554.6364153558998</v>
+      </c>
+      <c r="I17">
+        <v>1554.6364153559</v>
+      </c>
+      <c r="J17">
+        <v>1554.6364153558998</v>
+      </c>
+      <c r="K17">
+        <v>1554.6364153559</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="B18">
+        <v>10861.073116205216</v>
+      </c>
+      <c r="C18">
+        <v>10748.943394060962</v>
+      </c>
+      <c r="D18">
+        <v>10731.65936990869</v>
+      </c>
+      <c r="E18">
+        <v>10769.992205607168</v>
+      </c>
+      <c r="F18">
+        <v>10864.339063733652</v>
+      </c>
+      <c r="G18">
+        <v>10768.079985608416</v>
+      </c>
+      <c r="H18">
+        <v>10897.633528956607</v>
+      </c>
+      <c r="I18">
+        <v>10758.691709504074</v>
+      </c>
+      <c r="J18">
+        <v>10769.103837829642</v>
+      </c>
+      <c r="K18">
+        <v>10731.659369908693</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="B19">
+        <v>7528.6094195788437</v>
+      </c>
+      <c r="C19">
+        <v>7617.1150700286489</v>
+      </c>
+      <c r="D19">
+        <v>7453.9245889524864</v>
+      </c>
+      <c r="E19">
+        <v>7541.4785204922709</v>
+      </c>
+      <c r="F19">
+        <v>7572.8159736827438</v>
+      </c>
+      <c r="G19">
+        <v>7523.8651999661752</v>
+      </c>
+      <c r="H19">
+        <v>7620.1929773229867</v>
+      </c>
+      <c r="I19">
+        <v>7557.0515052673973</v>
+      </c>
+      <c r="J19">
+        <v>7512.7452323109992</v>
+      </c>
+      <c r="K19">
+        <v>7512.2864802723479</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="B20">
+        <v>6223.2162102886941</v>
+      </c>
+      <c r="C20">
+        <v>6223.2162102886923</v>
+      </c>
+      <c r="D20">
+        <v>6223.2162102886932</v>
+      </c>
+      <c r="E20">
+        <v>6223.216210288695</v>
+      </c>
+      <c r="F20">
+        <v>6223.2162102886923</v>
+      </c>
+      <c r="G20">
+        <v>6223.2162102886932</v>
+      </c>
+      <c r="H20">
+        <v>6223.2162102886932</v>
+      </c>
+      <c r="I20">
+        <v>6223.2162102886941</v>
+      </c>
+      <c r="J20">
+        <v>6223.2162102886923</v>
+      </c>
+      <c r="K20">
+        <v>6223.2162102886932</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="B21">
+        <v>6223.2162102886923</v>
+      </c>
+      <c r="C21">
+        <v>6223.2162102886923</v>
+      </c>
+      <c r="D21">
+        <v>6223.2162102886923</v>
+      </c>
+      <c r="E21">
+        <v>6223.2162102886923</v>
+      </c>
+      <c r="F21">
+        <v>6223.2162102886923</v>
+      </c>
+      <c r="G21">
+        <v>6223.2162102886932</v>
+      </c>
+      <c r="H21">
+        <v>6223.2162102886923</v>
+      </c>
+      <c r="I21">
+        <v>6223.2162102886923</v>
+      </c>
+      <c r="J21">
+        <v>6223.2162102886923</v>
+      </c>
+      <c r="K21">
+        <v>6223.2162102886932</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="B22">
+        <v>16166.887039015428</v>
+      </c>
+      <c r="C22">
+        <v>15808.239071974331</v>
+      </c>
+      <c r="D22">
+        <v>15873.111393589832</v>
+      </c>
+      <c r="E22">
+        <v>15956.3848638284</v>
+      </c>
+      <c r="F22">
+        <v>15964.126852486872</v>
+      </c>
+      <c r="G22">
+        <v>15957.14111192961</v>
+      </c>
+      <c r="H22">
+        <v>15966.5086130702</v>
+      </c>
+      <c r="I22">
+        <v>15927.907773048297</v>
+      </c>
+      <c r="J22">
+        <v>15862.639362267897</v>
+      </c>
+      <c r="K22">
+        <v>15958.331950574506</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="B23">
+        <v>11425.977747572952</v>
+      </c>
+      <c r="C23">
+        <v>11571.063773572407</v>
+      </c>
+      <c r="D23">
+        <v>11511.989149548401</v>
+      </c>
+      <c r="E23">
+        <v>11523.156156436071</v>
+      </c>
+      <c r="F23">
+        <v>11528.345794658835</v>
+      </c>
+      <c r="G23">
+        <v>11395.334152401543</v>
+      </c>
+      <c r="H23">
+        <v>11426.993614458634</v>
+      </c>
+      <c r="I23">
+        <v>11292.820204925834</v>
+      </c>
+      <c r="J23">
+        <v>11745.076454979304</v>
+      </c>
+      <c r="K23">
+        <v>11454.470227210053</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="B24">
+        <v>9731.1660144095695</v>
+      </c>
+      <c r="C24">
+        <v>9731.1660144095695</v>
+      </c>
+      <c r="D24">
+        <v>9731.1660144095695</v>
+      </c>
+      <c r="E24">
+        <v>9731.1660144095767</v>
+      </c>
+      <c r="F24">
+        <v>9731.1660144095767</v>
+      </c>
+      <c r="G24">
+        <v>9731.1660144095713</v>
+      </c>
+      <c r="H24">
+        <v>9731.1660144095731</v>
+      </c>
+      <c r="I24">
+        <v>9731.1660144095731</v>
+      </c>
+      <c r="J24">
+        <v>9731.1660144095713</v>
+      </c>
+      <c r="K24">
+        <v>9731.1660144095731</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="B25">
+        <v>9731.1660144095713</v>
+      </c>
+      <c r="C25">
+        <v>9731.1660144095731</v>
+      </c>
+      <c r="D25">
+        <v>9731.1660144095695</v>
+      </c>
+      <c r="E25">
+        <v>9731.1660144095713</v>
+      </c>
+      <c r="F25">
+        <v>9731.1660144095695</v>
+      </c>
+      <c r="G25">
+        <v>9731.1660144095731</v>
+      </c>
+      <c r="H25">
+        <v>9731.1660144095695</v>
+      </c>
+      <c r="I25">
+        <v>9731.1660144095731</v>
+      </c>
+      <c r="J25">
+        <v>9731.1660144095713</v>
+      </c>
+      <c r="K25">
+        <v>9731.1660144095695</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -2293,8 +2938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF052698-AE4B-4A52-A1BC-BC5F61C91264}">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:R36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2302,41 +2947,41 @@
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="C1" t="s" s="4">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C1" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D1" s="4"/>
-      <c r="E1" t="s" s="4">
+      <c r="E1" s="4" t="s">
         <v>39</v>
       </c>
       <c r="F1" s="4"/>
-      <c r="G1" t="s" s="4">
+      <c r="G1" s="4" t="s">
         <v>40</v>
       </c>
       <c r="H1" s="4"/>
-      <c r="I1" t="s" s="4">
+      <c r="I1" s="4" t="s">
         <v>41</v>
       </c>
       <c r="J1" s="4"/>
-      <c r="K1" t="s" s="4">
+      <c r="K1" s="4" t="s">
         <v>42</v>
       </c>
       <c r="L1" s="4"/>
-      <c r="M1" t="s" s="4">
+      <c r="M1" s="4" t="s">
         <v>43</v>
       </c>
       <c r="N1" s="4"/>
-      <c r="O1" t="s" s="4">
+      <c r="O1" s="4" t="s">
         <v>44</v>
       </c>
       <c r="P1" s="4"/>
-      <c r="Q1" t="s" s="4">
+      <c r="Q1" s="4" t="s">
         <v>45</v>
       </c>
       <c r="R1" s="4"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -2392,7 +3037,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2448,7 +3093,7 @@
         <v>159.57</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2504,7 +3149,7 @@
         <v>118.94</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2560,7 +3205,7 @@
         <v>112.07</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2616,7 +3261,7 @@
         <v>8509.16</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2672,7 +3317,7 @@
         <v>6824.65</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2728,7 +3373,7 @@
         <v>6358.49</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2784,7 +3429,7 @@
         <v>6358.49</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2840,7 +3485,7 @@
         <v>13194.86</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2896,7 +3541,7 @@
         <v>8649.7099999999991</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2952,7 +3597,7 @@
         <v>5791.18</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -3008,7 +3653,7 @@
         <v>5246.49</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -3064,7 +3709,7 @@
         <v>5246.49</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -3120,7 +3765,7 @@
         <v>2432.09</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3176,7 +3821,7 @@
         <v>1760.47</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -3232,7 +3877,7 @@
         <v>1555.02</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3288,7 +3933,7 @@
         <v>1554.64</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3344,7 +3989,7 @@
         <v>1554.64</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3400,7 +4045,7 @@
         <v>10923.78</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3456,7 +4101,7 @@
         <v>7609.48</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -3512,7 +4157,7 @@
         <v>6246.79</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -3568,7 +4213,7 @@
         <v>6223.22</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3624,7 +4269,7 @@
         <v>16184.43</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3680,7 +4325,7 @@
         <v>11848.73</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -3736,7 +4381,7 @@
         <v>9824.3799999999992</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -3792,7 +4437,7 @@
         <v>9731.17</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -3848,7 +4493,7 @@
         <v>3298.55</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -3904,7 +4549,7 @@
         <v>2226.65</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -3960,7 +4605,7 @@
         <v>1541.82</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -4016,7 +4661,7 @@
         <v>1270.29</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -4072,7 +4717,7 @@
         <v>21532.94</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -4128,7 +4773,7 @@
         <v>14214.44</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -4184,7 +4829,7 @@
         <v>8971.24</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -4240,7 +4885,7 @@
         <v>6835.4</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -4297,7 +4942,7 @@
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>55</v>
       </c>
@@ -4317,7 +4962,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -4352,7 +4997,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>50</v>
       </c>
@@ -4387,7 +5032,7 @@
         <v>170.2</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" t="s">
         <v>49</v>
@@ -4420,7 +5065,7 @@
         <v>3.67</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" t="s">
         <v>50</v>
@@ -4453,7 +5098,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" t="s">
         <v>51</v>
@@ -4486,7 +5131,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" t="s">
         <v>52</v>
@@ -4519,7 +5164,7 @@
         <v>3.38</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" t="s">
         <v>53</v>
@@ -4552,19 +5197,19 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>55</v>
       </c>
@@ -4584,7 +5229,7 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>54</v>
       </c>
@@ -4616,7 +5261,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>100</v>
       </c>
@@ -4651,7 +5296,7 @@
         <v>378.9</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" t="s">
         <v>49</v>
@@ -4684,7 +5329,7 @@
         <v>48.86</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" t="s">
         <v>50</v>
@@ -4717,7 +5362,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" t="s">
         <v>51</v>
@@ -4750,7 +5395,7 @@
         <v>20.02</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" t="s">
         <v>52</v>
@@ -4783,7 +5428,7 @@
         <v>24.08</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" t="s">
         <v>53</v>
@@ -4816,19 +5461,19 @@
         <v>23.37</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" t="s">
         <v>55</v>
@@ -4849,7 +5494,7 @@
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>54</v>
       </c>
@@ -4881,7 +5526,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>200</v>
       </c>
@@ -4916,7 +5561,7 @@
         <v>908.14</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" t="s">
         <v>49</v>
@@ -4949,7 +5594,7 @@
         <v>649.16999999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" t="s">
         <v>50</v>
@@ -4982,7 +5627,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" t="s">
         <v>51</v>
@@ -5015,7 +5660,7 @@
         <v>225.5</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" t="s">
         <v>52</v>
@@ -5048,7 +5693,7 @@
         <v>118.7</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" t="s">
         <v>53</v>
